--- a/input/onderwijsdoelen/lookup-onderwijsdoelen-L.xlsx
+++ b/input/onderwijsdoelen/lookup-onderwijsdoelen-L.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="L-LG" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
   <definedNames>
     <definedName name="lookup_column_S_WD" localSheetId="4">Sheet1!#REF!</definedName>
     <definedName name="lookup_more_columns_L_LG" localSheetId="0">'L-LG'!$A$15:$A$27</definedName>
-    <definedName name="lookup_more_columns_L_LG_1" localSheetId="0">'L-LG'!$E$1:$E$13</definedName>
+    <definedName name="lookup_more_columns_L_LG_1" localSheetId="0">'L-LG'!#REF!</definedName>
     <definedName name="lookup_more_columns_L_SD" localSheetId="1">'L-SD-generic'!#REF!</definedName>
+    <definedName name="lookup_more_columns_L_TH" localSheetId="4">Sheet1!$A$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +32,20 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="lookup-more-columns-L-LG" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
-    <textPr sourceFile="C:\git-workingcopies\i-learn\conceptschemes\input\onderwijsdoelen\lookup-more-columns-L-LG.csv" tab="0" delimiter="&quot;">
+    <textPr codePage="65001" sourceFile="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\lookup-more-columns-L-LG.csv" tab="0" delimiter="&quot;">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="lookup-more-columns-L-TH" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\lookup-more-columns-L-TH.csv" tab="0" delimiter="&quot;">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -226,9 +240,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr2/s-culturele-gerichtheid</t>
   </si>
   <si>
-    <t>culturele gerichtheid</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr2/s-drama</t>
   </si>
   <si>
@@ -658,9 +669,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr2/t-ruimtelijke-ordening</t>
   </si>
   <si>
-    <t>ruimtelijke ordening</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr2/t-sociaal-culturele-verschijnselen</t>
   </si>
   <si>
@@ -755,6 +763,12 @@
   </si>
   <si>
     <t>definitionNl</t>
+  </si>
+  <si>
+    <t>(inter)culturele gerichtheid</t>
+  </si>
+  <si>
+    <t>ruimtelijke ordening/bepaaldheid</t>
   </si>
 </sst>
 </file>
@@ -1301,11 +1315,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lookup-more-columns-L-LG_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lookup-more-columns-L-LG" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lookup-more-columns-L-LG" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lookup-more-columns-L-TH" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1588,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1597,83 +1611,83 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>220</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>221</v>
       </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>222</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
         <v>225</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>226</v>
@@ -1684,13 +1698,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,10 +1712,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1720,10 +1734,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +1768,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -1769,392 +1783,392 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
         <v>110</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
         <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
         <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
         <v>116</v>
-      </c>
-      <c r="F34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
         <v>120</v>
-      </c>
-      <c r="F36" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -2191,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,108 +2213,117 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,10 +2331,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,24 +2342,21 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,10 +2364,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,10 +2375,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,10 +2386,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,10 +2397,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,10 +2408,10 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,24 +2419,21 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,21 +2441,24 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,10 +2466,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,24 +2477,21 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,10 +2499,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,24 +2510,21 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,10 +2532,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
         <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,10 +2543,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,10 +2554,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
         <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
         <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,10 +2576,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,10 +2587,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
         <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2625,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -2634,18 +2650,21 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,13 +2672,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,63 +2686,63 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" t="s">
         <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,27 +2750,24 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,10 +2778,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
         <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,10 +2789,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
         <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,26 +2800,26 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
         <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
         <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,18 +2827,18 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
         <v>183</v>
-      </c>
-      <c r="D16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,10 +2846,10 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
         <v>186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2857,10 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
         <v>188</v>
-      </c>
-      <c r="D19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
         <v>190</v>
-      </c>
-      <c r="D20" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
         <v>192</v>
-      </c>
-      <c r="D21" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,26 +2887,26 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
         <v>194</v>
-      </c>
-      <c r="D22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
         <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" t="s">
         <v>198</v>
-      </c>
-      <c r="D24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,10 +2914,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
         <v>200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2912,10 +2928,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,10 +2942,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,10 +2956,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,10 +2967,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,10 +2981,10 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,10 +2995,10 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,10 +3006,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -3021,6 +3037,7 @@
   <cols>
     <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
